--- a/Static/insertAddr.xlsx
+++ b/Static/insertAddr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>地址分类</t>
   </si>
@@ -34,6 +34,9 @@
     <t>名称1</t>
   </si>
   <si>
+    <t>wanghan1</t>
+  </si>
+  <si>
     <t>金色普通</t>
   </si>
   <si>
@@ -43,6 +46,9 @@
     <t>名称2</t>
   </si>
   <si>
+    <t>wanghan2</t>
+  </si>
+  <si>
     <t>稀有</t>
   </si>
   <si>
@@ -50,6 +56,9 @@
   </si>
   <si>
     <t>名称3</t>
+  </si>
+  <si>
+    <t>wanghan3</t>
   </si>
   <si>
     <t>金色稀有</t>
@@ -102,9 +111,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -117,38 +126,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,60 +186,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -224,6 +193,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -231,9 +208,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,14 +232,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,156 +284,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -437,25 +464,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,75 +493,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -573,6 +513,60 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -581,90 +575,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -673,61 +682,61 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1060,13 +1069,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.1339285714286" defaultRowHeight="17.6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="14.1339285714286" defaultRowHeight="17.6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="16384" width="14.1339285714286" style="2" customWidth="1"/>
   </cols>
@@ -1082,7 +1091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1092,82 +1101,91 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Static/insertAddr.xlsx
+++ b/Static/insertAddr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>地址分类</t>
   </si>
@@ -34,9 +34,6 @@
     <t>名称1</t>
   </si>
   <si>
-    <t>wanghan1</t>
-  </si>
-  <si>
     <t>金色普通</t>
   </si>
   <si>
@@ -46,9 +43,6 @@
     <t>名称2</t>
   </si>
   <si>
-    <t>wanghan2</t>
-  </si>
-  <si>
     <t>稀有</t>
   </si>
   <si>
@@ -56,9 +50,6 @@
   </si>
   <si>
     <t>名称3</t>
-  </si>
-  <si>
-    <t>wanghan3</t>
   </si>
   <si>
     <t>金色稀有</t>
@@ -1069,13 +1060,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.1339285714286" defaultRowHeight="17.6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="14.1339285714286" defaultRowHeight="17.6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="16384" width="14.1339285714286" style="2" customWidth="1"/>
   </cols>
@@ -1091,7 +1082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1101,91 +1092,82 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Static/insertAddr.xlsx
+++ b/Static/insertAddr.xlsx
@@ -14,87 +14,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
-  <si>
-    <t>地址分类</t>
-  </si>
-  <si>
-    <t>地址编号</t>
-  </si>
-  <si>
-    <t>地址名称</t>
-  </si>
-  <si>
-    <t>普通</t>
-  </si>
-  <si>
-    <t>1-1</t>
-  </si>
-  <si>
-    <t>名称1</t>
-  </si>
-  <si>
-    <t>金色普通</t>
-  </si>
-  <si>
-    <t>2-1</t>
-  </si>
-  <si>
-    <t>名称2</t>
-  </si>
-  <si>
-    <t>稀有</t>
-  </si>
-  <si>
-    <t>3-1</t>
-  </si>
-  <si>
-    <t>名称3</t>
-  </si>
-  <si>
-    <t>金色稀有</t>
-  </si>
-  <si>
-    <t>4-1</t>
-  </si>
-  <si>
-    <t>名称4</t>
-  </si>
-  <si>
-    <t>史诗</t>
-  </si>
-  <si>
-    <t>5-1</t>
-  </si>
-  <si>
-    <t>名称5</t>
-  </si>
-  <si>
-    <t>金色史诗</t>
-  </si>
-  <si>
-    <t>6-1</t>
-  </si>
-  <si>
-    <t>名称6</t>
-  </si>
-  <si>
-    <t>传说</t>
-  </si>
-  <si>
-    <t>7-1</t>
-  </si>
-  <si>
-    <t>名称7</t>
-  </si>
-  <si>
-    <t>金色传说</t>
-  </si>
-  <si>
-    <t>8-1</t>
-  </si>
-  <si>
-    <t>名称8</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+  <si>
+    <t>0 - 地址分类</t>
+  </si>
+  <si>
+    <t>1 - 地址编号</t>
+  </si>
+  <si>
+    <t>2 - 地址名称</t>
+  </si>
+  <si>
+    <t>民族园</t>
+  </si>
+  <si>
+    <t>1-1-1</t>
+  </si>
+  <si>
+    <t>民族园1栋1层1号</t>
+  </si>
+  <si>
+    <t>1-1-2</t>
+  </si>
+  <si>
+    <t>民族园1栋1层2号</t>
+  </si>
+  <si>
+    <t>1-1-3</t>
+  </si>
+  <si>
+    <t>民族园1栋1层3号</t>
+  </si>
+  <si>
+    <t>渠道</t>
+  </si>
+  <si>
+    <t>2-1-1</t>
+  </si>
+  <si>
+    <t>民族园2栋1层1号</t>
+  </si>
+  <si>
+    <t>2-1-2</t>
+  </si>
+  <si>
+    <t>民族园2栋1层2号</t>
   </si>
 </sst>
 </file>
@@ -102,8 +66,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -130,18 +94,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,6 +125,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -176,6 +171,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -184,75 +217,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -281,6 +245,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -293,25 +263,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,25 +401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,109 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,11 +457,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,6 +477,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,17 +505,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,27 +531,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -586,142 +550,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1060,15 +1024,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.1339285714286" defaultRowHeight="17.6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="39.1339285714286" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="16384" width="14.1339285714286" style="2" customWidth="1"/>
+    <col min="1" max="2" width="39.1339285714286" style="2" customWidth="1"/>
+    <col min="3" max="3" width="80.5" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="39.1339285714286" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
@@ -1095,79 +1061,46 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
